--- a/contratos/contratos-8-2015.xlsx
+++ b/contratos/contratos-8-2015.xlsx
@@ -739,7 +739,7 @@
     <t>NALDO LOMBARDI  S.A.</t>
   </si>
   <si>
-    <t>ALBIZZATTI, PABLO MARTIN Y FULINI, SERGIO RUBEN</t>
+    <t>ALBIZZATTI. PABLO MARTIN Y FULINI. SERGIO RUBEN</t>
   </si>
   <si>
     <t>BOURLOT NESTOR CONRADO</t>
@@ -832,10 +832,10 @@
     <t>DUARTE EDMUNDO ALCIDES</t>
   </si>
   <si>
-    <t>FERNANDEZ, MARIO HUGO</t>
-  </si>
-  <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>FERNANDEZ. MARIO HUGO</t>
+  </si>
+  <si>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>RADIO MECANO S.A.</t>
@@ -907,7 +907,7 @@
     <t>NAUTICA COOK S.A.</t>
   </si>
   <si>
-    <t>RICCOTTI, MARIANA EDITH</t>
+    <t>RICCOTTI. MARIANA EDITH</t>
   </si>
   <si>
     <t>BONNIN MARTIN ANIBAL</t>
@@ -1006,7 +1006,7 @@
     <t>RULEMANES LITORAL S.R.L.</t>
   </si>
   <si>
-    <t>SCHAB DARIO, PEROTTI XAVIER, BENINCA MATIAS S.H.</t>
+    <t>SCHAB DARIO. PEROTTI XAVIER. BENINCA MATIAS SH</t>
   </si>
   <si>
     <t>TOMBA HERMANOS S.R.L.</t>
@@ -1276,7 +1276,7 @@
     <t>GENESIS</t>
   </si>
   <si>
-    <t>MERCANZINI, GASTON ARIEL</t>
+    <t>MERCANZINI. GASTON ARIEL</t>
   </si>
   <si>
     <t>MFZ</t>
@@ -1447,676 +1447,676 @@
     <t>180</t>
   </si>
   <si>
-    <t>7.170,00</t>
-  </si>
-  <si>
-    <t>335.746,18</t>
-  </si>
-  <si>
-    <t>211.350,00</t>
-  </si>
-  <si>
-    <t>261.360,00</t>
-  </si>
-  <si>
-    <t>6.939,85</t>
-  </si>
-  <si>
-    <t>1.719,96</t>
-  </si>
-  <si>
-    <t>8.608,88</t>
-  </si>
-  <si>
-    <t>29.100,00</t>
-  </si>
-  <si>
-    <t>239.790,00</t>
-  </si>
-  <si>
-    <t>489.703,69</t>
-  </si>
-  <si>
-    <t>26.810,00</t>
-  </si>
-  <si>
-    <t>133.175,19</t>
-  </si>
-  <si>
-    <t>20.280,00</t>
-  </si>
-  <si>
-    <t>7.899,60</t>
-  </si>
-  <si>
-    <t>120,00</t>
-  </si>
-  <si>
-    <t>2.949,50</t>
-  </si>
-  <si>
-    <t>11.623,87</t>
-  </si>
-  <si>
-    <t>4.381,00</t>
-  </si>
-  <si>
-    <t>29.197,39</t>
-  </si>
-  <si>
-    <t>5.200,00</t>
-  </si>
-  <si>
-    <t>6.500,00</t>
-  </si>
-  <si>
-    <t>1.790,00</t>
-  </si>
-  <si>
-    <t>627,00</t>
-  </si>
-  <si>
-    <t>115.880,00</t>
-  </si>
-  <si>
-    <t>273,12</t>
-  </si>
-  <si>
-    <t>1.900,00</t>
-  </si>
-  <si>
-    <t>481,13</t>
-  </si>
-  <si>
-    <t>24.500,00</t>
-  </si>
-  <si>
-    <t>87.702,69</t>
-  </si>
-  <si>
-    <t>800,00</t>
-  </si>
-  <si>
-    <t>17.078,44</t>
-  </si>
-  <si>
-    <t>655,60</t>
-  </si>
-  <si>
-    <t>2.996,33</t>
-  </si>
-  <si>
-    <t>76,00</t>
-  </si>
-  <si>
-    <t>11.919,64</t>
-  </si>
-  <si>
-    <t>2.538,58</t>
-  </si>
-  <si>
-    <t>11.940,00</t>
-  </si>
-  <si>
-    <t>248,29</t>
-  </si>
-  <si>
-    <t>3.796,00</t>
-  </si>
-  <si>
-    <t>690,03</t>
-  </si>
-  <si>
-    <t>140.121,98</t>
-  </si>
-  <si>
-    <t>4.315,00</t>
-  </si>
-  <si>
-    <t>2.793,90</t>
-  </si>
-  <si>
-    <t>107,50</t>
-  </si>
-  <si>
-    <t>154,00</t>
-  </si>
-  <si>
-    <t>228.119,00</t>
-  </si>
-  <si>
-    <t>110,35</t>
-  </si>
-  <si>
-    <t>894,00</t>
-  </si>
-  <si>
-    <t>215.950,00</t>
-  </si>
-  <si>
-    <t>439,28</t>
-  </si>
-  <si>
-    <t>4.751,25</t>
-  </si>
-  <si>
-    <t>3.547,21</t>
-  </si>
-  <si>
-    <t>56,28</t>
-  </si>
-  <si>
-    <t>1.162,54</t>
-  </si>
-  <si>
-    <t>64,00</t>
-  </si>
-  <si>
-    <t>261.359,48</t>
-  </si>
-  <si>
-    <t>994,09</t>
-  </si>
-  <si>
-    <t>4.068,62</t>
-  </si>
-  <si>
-    <t>395.209,41</t>
-  </si>
-  <si>
-    <t>29.956,72</t>
-  </si>
-  <si>
-    <t>1.400,00</t>
-  </si>
-  <si>
-    <t>2.117,70</t>
-  </si>
-  <si>
-    <t>1.075,80</t>
-  </si>
-  <si>
-    <t>1.902,52</t>
-  </si>
-  <si>
-    <t>1.274,00</t>
-  </si>
-  <si>
-    <t>6.172,00</t>
-  </si>
-  <si>
-    <t>248,00</t>
-  </si>
-  <si>
-    <t>3.042,00</t>
-  </si>
-  <si>
-    <t>2.400,16</t>
-  </si>
-  <si>
-    <t>27.720,00</t>
-  </si>
-  <si>
-    <t>250,00</t>
-  </si>
-  <si>
-    <t>89.960,00</t>
-  </si>
-  <si>
-    <t>180,00</t>
-  </si>
-  <si>
-    <t>4.997,30</t>
-  </si>
-  <si>
-    <t>20.225,00</t>
-  </si>
-  <si>
-    <t>350,00</t>
-  </si>
-  <si>
-    <t>15.600,00</t>
-  </si>
-  <si>
-    <t>2.650,00</t>
-  </si>
-  <si>
-    <t>165,00</t>
-  </si>
-  <si>
-    <t>16.799,95</t>
-  </si>
-  <si>
-    <t>8.800,00</t>
-  </si>
-  <si>
-    <t>2.070,00</t>
-  </si>
-  <si>
-    <t>2.274,00</t>
-  </si>
-  <si>
-    <t>209,00</t>
-  </si>
-  <si>
-    <t>500,00</t>
-  </si>
-  <si>
-    <t>12.323,00</t>
-  </si>
-  <si>
-    <t>1.140,00</t>
-  </si>
-  <si>
-    <t>2.699,60</t>
-  </si>
-  <si>
-    <t>3.400,00</t>
-  </si>
-  <si>
-    <t>11.700,00</t>
-  </si>
-  <si>
-    <t>187.240,80</t>
-  </si>
-  <si>
-    <t>5.000,00</t>
-  </si>
-  <si>
-    <t>54.000,00</t>
-  </si>
-  <si>
-    <t>6.000,00</t>
-  </si>
-  <si>
-    <t>12.377,30</t>
-  </si>
-  <si>
-    <t>391.178,31</t>
-  </si>
-  <si>
-    <t>6.180,00</t>
-  </si>
-  <si>
-    <t>89.671,87</t>
-  </si>
-  <si>
-    <t>2.385,37</t>
-  </si>
-  <si>
-    <t>100,00</t>
-  </si>
-  <si>
-    <t>129,00</t>
-  </si>
-  <si>
-    <t>18.630,61</t>
-  </si>
-  <si>
-    <t>19,36</t>
-  </si>
-  <si>
-    <t>39.125,80</t>
-  </si>
-  <si>
-    <t>2.685,00</t>
-  </si>
-  <si>
-    <t>309,00</t>
-  </si>
-  <si>
-    <t>8.645,10</t>
-  </si>
-  <si>
-    <t>8.718,00</t>
-  </si>
-  <si>
-    <t>4.485,00</t>
-  </si>
-  <si>
-    <t>459,00</t>
-  </si>
-  <si>
-    <t>1.848,00</t>
-  </si>
-  <si>
-    <t>2.850,00</t>
-  </si>
-  <si>
-    <t>17.558,88</t>
-  </si>
-  <si>
-    <t>5.281,98</t>
-  </si>
-  <si>
-    <t>94,00</t>
-  </si>
-  <si>
-    <t>8.555,40</t>
-  </si>
-  <si>
-    <t>2.170,40</t>
-  </si>
-  <si>
-    <t>20,00</t>
-  </si>
-  <si>
-    <t>2.487,00</t>
-  </si>
-  <si>
-    <t>8.450,00</t>
-  </si>
-  <si>
-    <t>811,00</t>
-  </si>
-  <si>
-    <t>1.040,00</t>
-  </si>
-  <si>
-    <t>540,00</t>
-  </si>
-  <si>
-    <t>42,96</t>
-  </si>
-  <si>
-    <t>266,14</t>
-  </si>
-  <si>
-    <t>2.000,00</t>
-  </si>
-  <si>
-    <t>5.500,00</t>
-  </si>
-  <si>
-    <t>2.000,01</t>
-  </si>
-  <si>
-    <t>1.392,03</t>
-  </si>
-  <si>
-    <t>4.638,00</t>
-  </si>
-  <si>
-    <t>5.745,72</t>
-  </si>
-  <si>
-    <t>1.005.976,00</t>
-  </si>
-  <si>
-    <t>3.260,00</t>
-  </si>
-  <si>
-    <t>4.900,00</t>
-  </si>
-  <si>
-    <t>4.000,00</t>
-  </si>
-  <si>
-    <t>2.585,00</t>
-  </si>
-  <si>
-    <t>9.000,00</t>
-  </si>
-  <si>
-    <t>8.960,00</t>
-  </si>
-  <si>
-    <t>346,68</t>
-  </si>
-  <si>
-    <t>68,70</t>
-  </si>
-  <si>
-    <t>745,00</t>
-  </si>
-  <si>
-    <t>10.055,31</t>
-  </si>
-  <si>
-    <t>12.200,28</t>
-  </si>
-  <si>
-    <t>1.500,00</t>
-  </si>
-  <si>
-    <t>6.292,00</t>
-  </si>
-  <si>
-    <t>1.800,00</t>
-  </si>
-  <si>
-    <t>1.656,00</t>
-  </si>
-  <si>
-    <t>1.000,00</t>
-  </si>
-  <si>
-    <t>37.939,50</t>
-  </si>
-  <si>
-    <t>12.000,00</t>
-  </si>
-  <si>
-    <t>5.865,00</t>
-  </si>
-  <si>
-    <t>600,00</t>
-  </si>
-  <si>
-    <t>1.536,00</t>
-  </si>
-  <si>
-    <t>32.750,00</t>
-  </si>
-  <si>
-    <t>726,00</t>
-  </si>
-  <si>
-    <t>2.300,00</t>
-  </si>
-  <si>
-    <t>3.917,85</t>
-  </si>
-  <si>
-    <t>200,00</t>
-  </si>
-  <si>
-    <t>2.250,02</t>
-  </si>
-  <si>
-    <t>34,14</t>
-  </si>
-  <si>
-    <t>11.382,00</t>
-  </si>
-  <si>
-    <t>450,00</t>
-  </si>
-  <si>
-    <t>486,48</t>
-  </si>
-  <si>
-    <t>8.082,00</t>
-  </si>
-  <si>
-    <t>507,20</t>
-  </si>
-  <si>
-    <t>1.225,00</t>
-  </si>
-  <si>
-    <t>400,00</t>
-  </si>
-  <si>
-    <t>3.465,38</t>
-  </si>
-  <si>
-    <t>299,40</t>
-  </si>
-  <si>
-    <t>4.847,00</t>
-  </si>
-  <si>
-    <t>3.579,98</t>
-  </si>
-  <si>
-    <t>9.070,70</t>
-  </si>
-  <si>
-    <t>1.603,61</t>
-  </si>
-  <si>
-    <t>4.071,26</t>
-  </si>
-  <si>
-    <t>520,00</t>
-  </si>
-  <si>
-    <t>22.470,00</t>
-  </si>
-  <si>
-    <t>5.962,84</t>
-  </si>
-  <si>
-    <t>10.907,00</t>
-  </si>
-  <si>
-    <t>80,00</t>
-  </si>
-  <si>
-    <t>19.930,00</t>
-  </si>
-  <si>
-    <t>280,11</t>
-  </si>
-  <si>
-    <t>4.580,00</t>
-  </si>
-  <si>
-    <t>4.764,66</t>
-  </si>
-  <si>
-    <t>1.073,22</t>
-  </si>
-  <si>
-    <t>2.683,00</t>
-  </si>
-  <si>
-    <t>4.140,00</t>
-  </si>
-  <si>
-    <t>13.925,00</t>
-  </si>
-  <si>
-    <t>7.865,00</t>
-  </si>
-  <si>
-    <t>156,00</t>
-  </si>
-  <si>
-    <t>4,56</t>
-  </si>
-  <si>
-    <t>7.568,00</t>
-  </si>
-  <si>
-    <t>4.400,00</t>
-  </si>
-  <si>
-    <t>2.355,00</t>
-  </si>
-  <si>
-    <t>5.286,00</t>
-  </si>
-  <si>
-    <t>1.862,97</t>
-  </si>
-  <si>
-    <t>2.410,00</t>
-  </si>
-  <si>
-    <t>2.970,00</t>
-  </si>
-  <si>
-    <t>132.000,00</t>
-  </si>
-  <si>
-    <t>8.634,06</t>
-  </si>
-  <si>
-    <t>3.468,00</t>
-  </si>
-  <si>
-    <t>1.753.515,17</t>
-  </si>
-  <si>
-    <t>2.400,00</t>
-  </si>
-  <si>
-    <t>10.000,00</t>
-  </si>
-  <si>
-    <t>118.000,00</t>
-  </si>
-  <si>
-    <t>185.000,00</t>
-  </si>
-  <si>
-    <t>206.196,00</t>
-  </si>
-  <si>
-    <t>32.500,00</t>
-  </si>
-  <si>
-    <t>27.000,00</t>
-  </si>
-  <si>
-    <t>8.700,00</t>
-  </si>
-  <si>
-    <t>120.372,00</t>
-  </si>
-  <si>
-    <t>72.800,00</t>
-  </si>
-  <si>
-    <t>65.700,00</t>
-  </si>
-  <si>
-    <t>106.780,00</t>
-  </si>
-  <si>
-    <t>1.144.298,33</t>
-  </si>
-  <si>
-    <t>2.263.733,20</t>
-  </si>
-  <si>
-    <t>34.000,00</t>
-  </si>
-  <si>
-    <t>1.238.901,11</t>
-  </si>
-  <si>
-    <t>5.264,55</t>
-  </si>
-  <si>
-    <t>60.720,00</t>
-  </si>
-  <si>
-    <t>38.000,00</t>
-  </si>
-  <si>
-    <t>7.950,00</t>
-  </si>
-  <si>
-    <t>9.900,00</t>
-  </si>
-  <si>
-    <t>13.600,00</t>
-  </si>
-  <si>
-    <t>340,00</t>
+    <t>7170.00</t>
+  </si>
+  <si>
+    <t>335746.18</t>
+  </si>
+  <si>
+    <t>211350.00</t>
+  </si>
+  <si>
+    <t>261360.00</t>
+  </si>
+  <si>
+    <t>6939.85</t>
+  </si>
+  <si>
+    <t>1719.96</t>
+  </si>
+  <si>
+    <t>8608.88</t>
+  </si>
+  <si>
+    <t>29100.00</t>
+  </si>
+  <si>
+    <t>239790.00</t>
+  </si>
+  <si>
+    <t>489703.69</t>
+  </si>
+  <si>
+    <t>26810.00</t>
+  </si>
+  <si>
+    <t>133175.19</t>
+  </si>
+  <si>
+    <t>20280.00</t>
+  </si>
+  <si>
+    <t>7899.60</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>2949.50</t>
+  </si>
+  <si>
+    <t>11623.87</t>
+  </si>
+  <si>
+    <t>4381.00</t>
+  </si>
+  <si>
+    <t>29197.39</t>
+  </si>
+  <si>
+    <t>5200.00</t>
+  </si>
+  <si>
+    <t>6500.00</t>
+  </si>
+  <si>
+    <t>1790.00</t>
+  </si>
+  <si>
+    <t>627.00</t>
+  </si>
+  <si>
+    <t>115880.00</t>
+  </si>
+  <si>
+    <t>273.12</t>
+  </si>
+  <si>
+    <t>1900.00</t>
+  </si>
+  <si>
+    <t>481.13</t>
+  </si>
+  <si>
+    <t>24500.00</t>
+  </si>
+  <si>
+    <t>87702.69</t>
+  </si>
+  <si>
+    <t>800.00</t>
+  </si>
+  <si>
+    <t>17078.44</t>
+  </si>
+  <si>
+    <t>655.60</t>
+  </si>
+  <si>
+    <t>2996.33</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
+    <t>11919.64</t>
+  </si>
+  <si>
+    <t>2538.58</t>
+  </si>
+  <si>
+    <t>11940.00</t>
+  </si>
+  <si>
+    <t>248.29</t>
+  </si>
+  <si>
+    <t>3796.00</t>
+  </si>
+  <si>
+    <t>690.03</t>
+  </si>
+  <si>
+    <t>140121.98</t>
+  </si>
+  <si>
+    <t>4315.00</t>
+  </si>
+  <si>
+    <t>2793.90</t>
+  </si>
+  <si>
+    <t>107.50</t>
+  </si>
+  <si>
+    <t>154.00</t>
+  </si>
+  <si>
+    <t>228119.00</t>
+  </si>
+  <si>
+    <t>110.35</t>
+  </si>
+  <si>
+    <t>894.00</t>
+  </si>
+  <si>
+    <t>215950.00</t>
+  </si>
+  <si>
+    <t>439.28</t>
+  </si>
+  <si>
+    <t>4751.25</t>
+  </si>
+  <si>
+    <t>3547.21</t>
+  </si>
+  <si>
+    <t>56.28</t>
+  </si>
+  <si>
+    <t>1162.54</t>
+  </si>
+  <si>
+    <t>64.00</t>
+  </si>
+  <si>
+    <t>261359.48</t>
+  </si>
+  <si>
+    <t>994.09</t>
+  </si>
+  <si>
+    <t>4068.62</t>
+  </si>
+  <si>
+    <t>395209.41</t>
+  </si>
+  <si>
+    <t>29956.72</t>
+  </si>
+  <si>
+    <t>1400.00</t>
+  </si>
+  <si>
+    <t>2117.70</t>
+  </si>
+  <si>
+    <t>1075.80</t>
+  </si>
+  <si>
+    <t>1902.52</t>
+  </si>
+  <si>
+    <t>1274.00</t>
+  </si>
+  <si>
+    <t>6172.00</t>
+  </si>
+  <si>
+    <t>248.00</t>
+  </si>
+  <si>
+    <t>3042.00</t>
+  </si>
+  <si>
+    <t>2400.16</t>
+  </si>
+  <si>
+    <t>27720.00</t>
+  </si>
+  <si>
+    <t>250.00</t>
+  </si>
+  <si>
+    <t>89960.00</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>4997.30</t>
+  </si>
+  <si>
+    <t>20225.00</t>
+  </si>
+  <si>
+    <t>350.00</t>
+  </si>
+  <si>
+    <t>15600.00</t>
+  </si>
+  <si>
+    <t>2650.00</t>
+  </si>
+  <si>
+    <t>165.00</t>
+  </si>
+  <si>
+    <t>16799.95</t>
+  </si>
+  <si>
+    <t>8800.00</t>
+  </si>
+  <si>
+    <t>2070.00</t>
+  </si>
+  <si>
+    <t>2274.00</t>
+  </si>
+  <si>
+    <t>209.00</t>
+  </si>
+  <si>
+    <t>500.00</t>
+  </si>
+  <si>
+    <t>12323.00</t>
+  </si>
+  <si>
+    <t>1140.00</t>
+  </si>
+  <si>
+    <t>2699.60</t>
+  </si>
+  <si>
+    <t>3400.00</t>
+  </si>
+  <si>
+    <t>11700.00</t>
+  </si>
+  <si>
+    <t>187240.80</t>
+  </si>
+  <si>
+    <t>5000.00</t>
+  </si>
+  <si>
+    <t>54000.00</t>
+  </si>
+  <si>
+    <t>6000.00</t>
+  </si>
+  <si>
+    <t>12377.30</t>
+  </si>
+  <si>
+    <t>391178.31</t>
+  </si>
+  <si>
+    <t>6180.00</t>
+  </si>
+  <si>
+    <t>89671.87</t>
+  </si>
+  <si>
+    <t>2385.37</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>129.00</t>
+  </si>
+  <si>
+    <t>18630.61</t>
+  </si>
+  <si>
+    <t>19.36</t>
+  </si>
+  <si>
+    <t>39125.80</t>
+  </si>
+  <si>
+    <t>2685.00</t>
+  </si>
+  <si>
+    <t>309.00</t>
+  </si>
+  <si>
+    <t>8645.10</t>
+  </si>
+  <si>
+    <t>8718.00</t>
+  </si>
+  <si>
+    <t>4485.00</t>
+  </si>
+  <si>
+    <t>459.00</t>
+  </si>
+  <si>
+    <t>1848.00</t>
+  </si>
+  <si>
+    <t>2850.00</t>
+  </si>
+  <si>
+    <t>17558.88</t>
+  </si>
+  <si>
+    <t>5281.98</t>
+  </si>
+  <si>
+    <t>94.00</t>
+  </si>
+  <si>
+    <t>8555.40</t>
+  </si>
+  <si>
+    <t>2170.40</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>2487.00</t>
+  </si>
+  <si>
+    <t>8450.00</t>
+  </si>
+  <si>
+    <t>811.00</t>
+  </si>
+  <si>
+    <t>1040.00</t>
+  </si>
+  <si>
+    <t>540.00</t>
+  </si>
+  <si>
+    <t>42.96</t>
+  </si>
+  <si>
+    <t>266.14</t>
+  </si>
+  <si>
+    <t>2000.00</t>
+  </si>
+  <si>
+    <t>5500.00</t>
+  </si>
+  <si>
+    <t>2000.01</t>
+  </si>
+  <si>
+    <t>1392.03</t>
+  </si>
+  <si>
+    <t>4638.00</t>
+  </si>
+  <si>
+    <t>5745.72</t>
+  </si>
+  <si>
+    <t>1005976.00</t>
+  </si>
+  <si>
+    <t>3260.00</t>
+  </si>
+  <si>
+    <t>4900.00</t>
+  </si>
+  <si>
+    <t>4000.00</t>
+  </si>
+  <si>
+    <t>2585.00</t>
+  </si>
+  <si>
+    <t>9000.00</t>
+  </si>
+  <si>
+    <t>8960.00</t>
+  </si>
+  <si>
+    <t>346.68</t>
+  </si>
+  <si>
+    <t>68.70</t>
+  </si>
+  <si>
+    <t>745.00</t>
+  </si>
+  <si>
+    <t>10055.31</t>
+  </si>
+  <si>
+    <t>12200.28</t>
+  </si>
+  <si>
+    <t>1500.00</t>
+  </si>
+  <si>
+    <t>6292.00</t>
+  </si>
+  <si>
+    <t>1800.00</t>
+  </si>
+  <si>
+    <t>1656.00</t>
+  </si>
+  <si>
+    <t>1000.00</t>
+  </si>
+  <si>
+    <t>37939.50</t>
+  </si>
+  <si>
+    <t>12000.00</t>
+  </si>
+  <si>
+    <t>5865.00</t>
+  </si>
+  <si>
+    <t>600.00</t>
+  </si>
+  <si>
+    <t>1536.00</t>
+  </si>
+  <si>
+    <t>32750.00</t>
+  </si>
+  <si>
+    <t>726.00</t>
+  </si>
+  <si>
+    <t>2300.00</t>
+  </si>
+  <si>
+    <t>3917.85</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>2250.02</t>
+  </si>
+  <si>
+    <t>34.14</t>
+  </si>
+  <si>
+    <t>11382.00</t>
+  </si>
+  <si>
+    <t>450.00</t>
+  </si>
+  <si>
+    <t>486.48</t>
+  </si>
+  <si>
+    <t>8082.00</t>
+  </si>
+  <si>
+    <t>507.20</t>
+  </si>
+  <si>
+    <t>1225.00</t>
+  </si>
+  <si>
+    <t>400.00</t>
+  </si>
+  <si>
+    <t>3465.38</t>
+  </si>
+  <si>
+    <t>299.40</t>
+  </si>
+  <si>
+    <t>4847.00</t>
+  </si>
+  <si>
+    <t>3579.98</t>
+  </si>
+  <si>
+    <t>9070.70</t>
+  </si>
+  <si>
+    <t>1603.61</t>
+  </si>
+  <si>
+    <t>4071.26</t>
+  </si>
+  <si>
+    <t>520.00</t>
+  </si>
+  <si>
+    <t>22470.00</t>
+  </si>
+  <si>
+    <t>5962.84</t>
+  </si>
+  <si>
+    <t>10907.00</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>19930.00</t>
+  </si>
+  <si>
+    <t>280.11</t>
+  </si>
+  <si>
+    <t>4580.00</t>
+  </si>
+  <si>
+    <t>4764.66</t>
+  </si>
+  <si>
+    <t>1073.22</t>
+  </si>
+  <si>
+    <t>2683.00</t>
+  </si>
+  <si>
+    <t>4140.00</t>
+  </si>
+  <si>
+    <t>13925.00</t>
+  </si>
+  <si>
+    <t>7865.00</t>
+  </si>
+  <si>
+    <t>156.00</t>
+  </si>
+  <si>
+    <t>4.56</t>
+  </si>
+  <si>
+    <t>7568.00</t>
+  </si>
+  <si>
+    <t>4400.00</t>
+  </si>
+  <si>
+    <t>2355.00</t>
+  </si>
+  <si>
+    <t>5286.00</t>
+  </si>
+  <si>
+    <t>1862.97</t>
+  </si>
+  <si>
+    <t>2410.00</t>
+  </si>
+  <si>
+    <t>2970.00</t>
+  </si>
+  <si>
+    <t>132000.00</t>
+  </si>
+  <si>
+    <t>8634.06</t>
+  </si>
+  <si>
+    <t>3468.00</t>
+  </si>
+  <si>
+    <t>1753515.17</t>
+  </si>
+  <si>
+    <t>2400.00</t>
+  </si>
+  <si>
+    <t>10000.00</t>
+  </si>
+  <si>
+    <t>118000.00</t>
+  </si>
+  <si>
+    <t>185000.00</t>
+  </si>
+  <si>
+    <t>206196.00</t>
+  </si>
+  <si>
+    <t>32500.00</t>
+  </si>
+  <si>
+    <t>27000.00</t>
+  </si>
+  <si>
+    <t>8700.00</t>
+  </si>
+  <si>
+    <t>120372.00</t>
+  </si>
+  <si>
+    <t>72800.00</t>
+  </si>
+  <si>
+    <t>65700.00</t>
+  </si>
+  <si>
+    <t>106780.00</t>
+  </si>
+  <si>
+    <t>1144298.33</t>
+  </si>
+  <si>
+    <t>2263733.20</t>
+  </si>
+  <si>
+    <t>34000.00</t>
+  </si>
+  <si>
+    <t>1238901.11</t>
+  </si>
+  <si>
+    <t>5264.55</t>
+  </si>
+  <si>
+    <t>60720.00</t>
+  </si>
+  <si>
+    <t>38000.00</t>
+  </si>
+  <si>
+    <t>7950.00</t>
+  </si>
+  <si>
+    <t>9900.00</t>
+  </si>
+  <si>
+    <t>13600.00</t>
+  </si>
+  <si>
+    <t>340.00</t>
   </si>
 </sst>
 </file>
